--- a/yagi_180.xlsx
+++ b/yagi_180.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\# Thesis 2022-2023\Master-Thesis-2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -300,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -315,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -323,1306 +329,1581 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="true"/>
-    <col min="2" max="2" width="9.7109375" customWidth="true"/>
-    <col min="3" max="3" width="7.42578125" customWidth="true"/>
-    <col min="4" max="4" width="11.140625" customWidth="true"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>-45.337000000000003</v>
       </c>
-      <c r="D2" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="D2">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>-45.325000000000003</v>
       </c>
-      <c r="D3" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="D3">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>-45.335000000000001</v>
       </c>
-      <c r="D4" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="D4">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>-45.347000000000001</v>
       </c>
-      <c r="D5" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="D5">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>-45.514000000000003</v>
       </c>
-      <c r="D6" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="D6">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>-45.621000000000002</v>
       </c>
-      <c r="D7" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="D7">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>14</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>-45.631999999999998</v>
       </c>
-      <c r="D8" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="D8">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>16</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>-45.618000000000002</v>
       </c>
-      <c r="D9" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="D9">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>18</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>-45.637999999999998</v>
       </c>
-      <c r="D10" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="D10">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" s="0">
-        <v>-46.240000000000002</v>
-      </c>
-      <c r="D11" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="C11">
+        <v>-46.24</v>
+      </c>
+      <c r="D11">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>22</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>-46.279000000000003</v>
       </c>
-      <c r="D12" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="D12">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>24</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>-47.042000000000002</v>
       </c>
-      <c r="D13" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="D13">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>26</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>-47.295000000000002</v>
       </c>
-      <c r="D14" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="D14">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>28</v>
       </c>
-      <c r="C15" s="0">
-        <v>-47.670000000000002</v>
-      </c>
-      <c r="D15" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="C15">
+        <v>-47.67</v>
+      </c>
+      <c r="D15">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>30</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>-47.612000000000002</v>
       </c>
-      <c r="D16" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="D16">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>32</v>
       </c>
-      <c r="C17" s="0">
-        <v>-48.200000000000003</v>
-      </c>
-      <c r="D17" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="C17">
+        <v>-48.2</v>
+      </c>
+      <c r="D17">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>34</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>-48.704000000000001</v>
       </c>
-      <c r="D18" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="D18">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>36</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>-48.591000000000001</v>
       </c>
-      <c r="D19" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="D19">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>38</v>
       </c>
-      <c r="C20" s="0">
-        <v>-49.100000000000001</v>
-      </c>
-      <c r="D20" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="C20">
+        <v>-49.1</v>
+      </c>
+      <c r="D20">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>40</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>-49.682000000000002</v>
       </c>
-      <c r="D21" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="D21">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>42</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>-50.277000000000001</v>
       </c>
-      <c r="D22" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="D22">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>44</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>-50.573999999999998</v>
       </c>
-      <c r="D23" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="D23">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>46</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>-51.066000000000003</v>
       </c>
-      <c r="D24" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="D24">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>48</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>-51.552999999999997</v>
       </c>
-      <c r="D25" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="D25">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>50</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>-51.945999999999998</v>
       </c>
-      <c r="D26" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="D26">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>52</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>-52.183999999999997</v>
       </c>
-      <c r="D27" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="D27">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>54</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>-53.677999999999997</v>
       </c>
-      <c r="D28" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="D28">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>56</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>-53.728999999999999</v>
       </c>
-      <c r="D29" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="D29">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>58</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>-54.685000000000002</v>
       </c>
-      <c r="D30" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="D30">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>60</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>-54.734000000000002</v>
       </c>
-      <c r="D31" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="D31">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>62</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>-54.813000000000002</v>
       </c>
-      <c r="D32" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="D32">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>64</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>-54.652000000000001</v>
       </c>
-      <c r="D33" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="D33">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>66</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>-54.756</v>
       </c>
-      <c r="D34" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="D34">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>68</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>-54.576000000000001</v>
       </c>
-      <c r="D35" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="D35">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>70</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>-54.941000000000003</v>
       </c>
-      <c r="D36" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="D36">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>72</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>-54.139000000000003</v>
       </c>
-      <c r="D37" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="D37">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>74</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>-54.484999999999999</v>
       </c>
-      <c r="D38" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="D38">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>76</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>-54.243000000000002</v>
       </c>
-      <c r="D39" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="D39">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>78</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>-54.234000000000002</v>
       </c>
-      <c r="D40" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="D40">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>80</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>-54.067999999999998</v>
       </c>
-      <c r="D41" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="D41">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>82</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>-53.606000000000002</v>
       </c>
-      <c r="D42" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="D42">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>84</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>-53.639000000000003</v>
       </c>
-      <c r="D43" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="D43">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>86</v>
       </c>
-      <c r="C44" s="0">
-        <v>-53.399999999999999</v>
-      </c>
-      <c r="D44" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="C44">
+        <v>-53.4</v>
+      </c>
+      <c r="D44">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>88</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>-53.404000000000003</v>
       </c>
-      <c r="D45" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="D45">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>90</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>-53.624000000000002</v>
       </c>
-      <c r="D46" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="D46">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>92</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>-53.527999999999999</v>
       </c>
-      <c r="D47" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="D47">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>94</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>-53.418999999999997</v>
       </c>
-      <c r="D48" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="D48">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>96</v>
       </c>
-      <c r="C49" s="0">
-        <v>-53.289999999999999</v>
-      </c>
-      <c r="D49" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="C49">
+        <v>-53.29</v>
+      </c>
+      <c r="D49">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>98</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>-53.584000000000003</v>
       </c>
-      <c r="D50" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="D50">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>100</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>-53.378999999999998</v>
       </c>
-      <c r="D51" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="D51">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>102</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>-53.561</v>
       </c>
-      <c r="D52" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="D52">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>104</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>-53.076999999999998</v>
       </c>
-      <c r="D53" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="D53">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>106</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>-53.273000000000003</v>
       </c>
-      <c r="D54" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="D54">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>108</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>-53.576000000000001</v>
       </c>
-      <c r="D55" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="D55">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>110</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>-53.718000000000004</v>
       </c>
-      <c r="D56" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="D56">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>112</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>-53.569000000000003</v>
       </c>
-      <c r="D57" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="D57">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>114</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>-53.814</v>
       </c>
-      <c r="D58" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="D58">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>116</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>-54.414000000000001</v>
       </c>
-      <c r="D59" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="D59">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>118</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>-54.411000000000001</v>
       </c>
-      <c r="D60" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="D60">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>120</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61">
         <v>-54.540999999999997</v>
       </c>
-      <c r="D61" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="D61">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>122</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62">
         <v>-54.603000000000002</v>
       </c>
-      <c r="D62" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="D62">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>124</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63">
         <v>-55.051000000000002</v>
       </c>
-      <c r="D63" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="D63">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64">
         <v>126</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64">
         <v>-55.420999999999999</v>
       </c>
-      <c r="D64" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="D64">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65">
         <v>128</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65">
         <v>-55.313000000000002</v>
       </c>
-      <c r="D65" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="D65">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66">
         <v>130</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66">
         <v>-55.383000000000003</v>
       </c>
-      <c r="D66" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+      <c r="D66">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67">
         <v>132</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67">
         <v>-55.405999999999999</v>
       </c>
-      <c r="D67" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="D67">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68">
         <v>134</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68">
         <v>-55.314999999999998</v>
       </c>
-      <c r="D68" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="D68">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69">
         <v>136</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69">
         <v>-55.725000000000001</v>
       </c>
-      <c r="D69" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="D69">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70">
         <v>138</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70">
         <v>-55.853999999999999</v>
       </c>
-      <c r="D70" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="D70">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71">
         <v>140</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71">
         <v>-56.110999999999997</v>
       </c>
-      <c r="D71" s="0">
+      <c r="D71">
         <v>2400004000</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72">
         <v>142</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72">
         <v>-56.198999999999998</v>
       </c>
-      <c r="D72" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="D72">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73">
         <v>144</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73">
         <v>-56.420999999999999</v>
       </c>
-      <c r="D73" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="D73">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74">
         <v>146</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74">
         <v>-56.892000000000003</v>
       </c>
-      <c r="D74" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="D74">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="0">
+      <c r="B75">
         <v>148</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75">
         <v>-57.345999999999997</v>
       </c>
-      <c r="D75" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="D75">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B76">
         <v>150</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76">
         <v>-57.438000000000002</v>
       </c>
-      <c r="D76" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+      <c r="D76">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="0">
+      <c r="B77">
         <v>152</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77">
         <v>-57.122999999999998</v>
       </c>
-      <c r="D77" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="D77">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="0">
+      <c r="B78">
         <v>154</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78">
         <v>-57.902999999999999</v>
       </c>
-      <c r="D78" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="D78">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="0">
+      <c r="B79">
         <v>156</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79">
         <v>-58.097999999999999</v>
       </c>
-      <c r="D79" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="D79">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="0">
+      <c r="B80">
         <v>158</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80">
         <v>-58.610999999999997</v>
       </c>
-      <c r="D80" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="D80">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B81">
         <v>160</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81">
         <v>-58.682000000000002</v>
       </c>
-      <c r="D81" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+      <c r="D81">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="0">
+      <c r="B82">
         <v>162</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82">
         <v>-59.314</v>
       </c>
-      <c r="D82" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+      <c r="D82">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B83">
         <v>164</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83">
         <v>-60.369</v>
       </c>
-      <c r="D83" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="D83">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B84">
         <v>166</v>
       </c>
-      <c r="C84" s="0">
-        <v>-61.869999999999997</v>
-      </c>
-      <c r="D84" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="C84">
+        <v>-61.87</v>
+      </c>
+      <c r="D84">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="0">
+      <c r="B85">
         <v>168</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85">
         <v>-61.783999999999999</v>
       </c>
-      <c r="D85" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="D85">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B86">
         <v>170</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86">
         <v>-63.061</v>
       </c>
-      <c r="D86" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+      <c r="D86">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="0">
+      <c r="B87">
         <v>172</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87">
         <v>-64.405000000000001</v>
       </c>
-      <c r="D87" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="D87">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="0">
+      <c r="B88">
         <v>174</v>
       </c>
-      <c r="C88" s="0">
+      <c r="C88">
         <v>-65.569999999999993</v>
       </c>
-      <c r="D88" s="0">
+      <c r="D88">
         <v>2400004000</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="0">
+      <c r="B89">
         <v>176</v>
       </c>
-      <c r="C89" s="0">
+      <c r="C89">
         <v>-67.137</v>
       </c>
-      <c r="D89" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+      <c r="D89">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="0">
+      <c r="B90">
         <v>178</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90">
         <v>-66.959000000000003</v>
       </c>
-      <c r="D90" s="0">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+      <c r="D90">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B91">
         <v>180</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91">
         <v>-69.853999999999999</v>
       </c>
-      <c r="D91" s="0">
+      <c r="D91">
         <v>2400000000</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>